--- a/data/kanja.xlsx
+++ b/data/kanja.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E876410-F6CB-45BE-A375-09FDAC2ACD8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C7DACC-5185-4C14-9239-0B4057774AA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="-12885" windowWidth="25395" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12120陽性患者属性" sheetId="1" r:id="rId1"/>
@@ -13730,10 +13730,10 @@
   <dimension ref="A1:O1470"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1467" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1445" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q1473" sqref="Q1473"/>
+      <selection pane="bottomRight" activeCell="Q1474" sqref="Q1474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
